--- a/RNN_Stopping_Grid/Data2/Search/manual_search_results_1HL_lr_GLMAX1_1_15_30.xlsx
+++ b/RNN_Stopping_Grid/Data2/Search/manual_search_results_1HL_lr_GLMAX1_1_15_30.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN_Stopping_Grid\Data2\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11948109-13BB-466C-BDCB-AFE849A8126C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986F06DE-3599-469F-9A79-5E73961C9FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manual_search_results_1HL_lr_GL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,7 +146,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,9 +636,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -710,7 +727,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -926,7 +943,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -979,6 +996,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7807456872565387E-2"/>
+              <c:y val="0.32220513337335344"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1030,7 +1055,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1989,11 +2014,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,7 +2307,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
